--- a/figure/OperatorWeights.xlsx
+++ b/figure/OperatorWeights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanzhang/Documents/UOALearning/OperatorPaper/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F34F1B8-5C4C-5449-8294-4E8C967A66E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60402D72-3B4F-3745-8307-9066AE7E8A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1040" windowWidth="33180" windowHeight="17440" activeTab="1" xr2:uid="{3FB4DF38-F6E0-1E40-BC74-3A8B570BED1B}"/>
+    <workbookView xWindow="35820" yWindow="1400" windowWidth="33180" windowHeight="17440" xr2:uid="{3FB4DF38-F6E0-1E40-BC74-3A8B570BED1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolute" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +170,13 @@
     </font>
     <font>
       <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,47 +373,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,12 +395,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,6 +443,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A310927F-C9A1-4443-B16F-5623ACA02806}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -815,46 +827,46 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="31">
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -868,25 +880,25 @@
       <c r="C3" s="8">
         <v>25</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
       <c r="E3" s="8">
         <v>25</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
         <v>25</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>25</v>
-      </c>
-      <c r="J3" s="12">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -898,25 +910,25 @@
       <c r="C4" s="8">
         <v>15</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="15">
         <v>30</v>
       </c>
       <c r="E4" s="8">
         <v>15</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="10">
         <v>30</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="12">
         <v>15</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>30</v>
       </c>
-      <c r="I4" s="8">
-        <v>10</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="51">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9">
         <v>30</v>
       </c>
     </row>
@@ -925,22 +937,22 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="18">
-        <v>3</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="C5" s="39">
+        <v>3</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="39">
+        <v>3</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="43">
+        <v>3</v>
+      </c>
+      <c r="H5" s="44"/>
       <c r="I5" s="8">
         <v>3</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <v>3</v>
       </c>
     </row>
@@ -948,95 +960,97 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23"/>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="47"/>
       <c r="E6" s="8">
         <v>4</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="I6" s="39">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="31">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23"/>
+      <c r="C7" s="39">
+        <v>0</v>
+      </c>
+      <c r="D7" s="47"/>
       <c r="E7" s="8">
         <v>5</v>
       </c>
-      <c r="F7" s="15">
-        <v>3</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11"/>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="39">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="31">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="18">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="10">
+      <c r="C8" s="39">
+        <v>3</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="39">
+        <v>3</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43">
+        <v>3</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="52">
+        <v>5</v>
+      </c>
+      <c r="J8" s="50">
         <v>10</v>
       </c>
-      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="31">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="10">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="10">
+      <c r="C9" s="39">
+        <v>3</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="39">
+        <v>3</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="43">
+        <v>3</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="39">
         <v>5</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="31">
       <c r="A10" s="2"/>
@@ -1046,25 +1060,25 @@
       <c r="C10" s="7">
         <v>20</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="16">
         <v>30</v>
       </c>
       <c r="E10" s="8">
         <v>15</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="10">
         <v>30</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <v>30</v>
       </c>
       <c r="I10" s="8">
         <v>5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <v>10</v>
       </c>
     </row>
@@ -1078,25 +1092,25 @@
       <c r="C11" s="3">
         <v>11</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="17">
         <v>15</v>
       </c>
       <c r="E11" s="6">
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="14">
         <v>15</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="13">
         <v>13</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="14">
         <v>15</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="41">
         <v>15</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="31">
       <c r="A12" s="2"/>
@@ -1106,69 +1120,69 @@
       <c r="C12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="16">
         <v>15</v>
       </c>
       <c r="E12" s="8">
         <v>12</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="10">
         <v>15</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="12">
         <v>13</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <v>15</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="39">
         <v>15</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" ht="31">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="10">
-        <v>3</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="18">
-        <v>3</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="10">
+      <c r="C13" s="39">
+        <v>3</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="39">
+        <v>3</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="43">
+        <v>3</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="39">
         <v>5</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="31">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="10">
-        <v>3</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="18">
-        <v>3</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="10">
+      <c r="C14" s="39">
+        <v>3</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="39">
+        <v>3</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="43">
+        <v>3</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="39">
         <v>5</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="31">
       <c r="A15" s="2"/>
@@ -1178,70 +1192,70 @@
       <c r="C15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="25">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="10">
+      <c r="D15" s="16">
+        <v>3</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="39">
         <v>5</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="31">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <v>7</v>
       </c>
-      <c r="D16" s="27">
-        <v>3</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11"/>
+      <c r="D16" s="18">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="31">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23"/>
+      <c r="C17" s="39">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47"/>
       <c r="E17" s="8">
         <v>9</v>
       </c>
-      <c r="F17" s="15">
-        <v>3</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="12">
         <v>7</v>
       </c>
-      <c r="H17" s="15">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11"/>
+      <c r="H17" s="10">
+        <v>3</v>
+      </c>
+      <c r="I17" s="39">
+        <v>0</v>
+      </c>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="31">
       <c r="A18" s="3" t="s">
@@ -1250,44 +1264,44 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="41">
         <v>0.1</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="9">
+      <c r="D18" s="48"/>
+      <c r="E18" s="41">
         <v>0.1</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="22">
+      <c r="F18" s="46"/>
+      <c r="G18" s="45">
         <v>0.1</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="9">
+      <c r="H18" s="46"/>
+      <c r="I18" s="41">
         <v>1</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="31">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="39">
         <v>0.1</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="10">
+      <c r="D19" s="47"/>
+      <c r="E19" s="39">
         <v>0.1</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="18">
+      <c r="F19" s="44"/>
+      <c r="G19" s="43">
         <v>0.1</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="10">
+      <c r="H19" s="44"/>
+      <c r="I19" s="39">
         <v>0.2</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="31">
       <c r="A20" s="1"/>
@@ -1335,37 +1349,7 @@
       <c r="C28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="44">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -1381,6 +1365,35 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1390,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08363EBC-35EB-8D4A-94A4-8966FDA7430E}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="J19" sqref="A1:J19"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1415,46 +1428,46 @@
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="31">
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1465,32 +1478,32 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="27">
         <f>25/104.2</f>
         <v>0.23992322456813819</v>
       </c>
-      <c r="D3" s="32">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
         <f>25/111.2</f>
         <v>0.22482014388489208</v>
       </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31">
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
         <f>25/112.2</f>
         <v>0.22281639928698752</v>
       </c>
-      <c r="H3" s="32">
-        <v>0</v>
-      </c>
-      <c r="I3" s="31">
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
         <f>25/112.2</f>
         <v>0.22281639928698752</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1499,35 +1512,35 @@
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="27">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="21">
         <f>30/104.2</f>
         <v>0.28790786948176583</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="27">
         <f>15/111.2</f>
         <v>0.13489208633093525</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="21">
         <f>30/111.2</f>
         <v>0.26978417266187049</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="20">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="21">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="20">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="21">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
@@ -1537,35 +1550,35 @@
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="27">
         <f>3/104.2</f>
         <v>2.8790786948176581E-2</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="21">
         <f>3/104.2</f>
         <v>2.8790786948176581E-2</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="27">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="20">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="21">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="20">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="21">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
@@ -1574,31 +1587,31 @@
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
         <f>4/112.2</f>
         <v>3.5650623885918005E-2</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="21">
         <f>1/112.2</f>
         <v>8.9126559714795012E-3</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="20">
         <f>1/112.2</f>
         <v>8.9126559714795012E-3</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="21">
         <f>1/112.2</f>
         <v>8.9126559714795012E-3</v>
       </c>
@@ -1607,32 +1620,32 @@
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
         <f>5/112.2</f>
         <v>4.4563279857397504E-2</v>
       </c>
-      <c r="H7" s="32">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="I7" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="J7" s="32">
-        <f>3/112.2</f>
+      <c r="H7" s="21">
+        <f t="shared" ref="H7:J9" si="0">3/112.2</f>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
@@ -1641,36 +1654,36 @@
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="28">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="23">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="27">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="20">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H8" s="32">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="I8" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="J8" s="32">
-        <f>3/112.2</f>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
@@ -1679,36 +1692,36 @@
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="28">
         <f>5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="23">
         <f>5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="27">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="20">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H9" s="32">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="I9" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="J9" s="32">
-        <f>3/112.2</f>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
@@ -1717,35 +1730,35 @@
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="33">
         <f>5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="34">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="27">
         <f>20/111.2</f>
         <v>0.17985611510791366</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="21">
         <f>30/111.2</f>
         <v>0.26978417266187049</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="35">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="34">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="20">
         <f>20/112.2</f>
         <v>0.17825311942959002</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="21">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
@@ -1757,35 +1770,35 @@
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="28">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="36">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="29">
         <f>11/111.2</f>
         <v>9.8920863309352514E-2</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="25">
         <f>15/111.2</f>
         <v>0.13489208633093525</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="20">
         <f>12/112.2</f>
         <v>0.10695187165775401</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="21">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="24">
         <f>13/112.2</f>
         <v>0.11586452762923351</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="25">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
@@ -1795,35 +1808,35 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="28">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="23">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="27">
         <f>11/111.2</f>
         <v>9.8920863309352514E-2</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="21">
         <f>15/111.2</f>
         <v>0.13489208633093525</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="20">
         <f>12/112.2</f>
         <v>0.10695187165775401</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="21">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="20">
         <f>13/112.2</f>
         <v>0.11586452762923351</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="21">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
@@ -1833,36 +1846,36 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="39">
-        <f>5/104.2</f>
+      <c r="C13" s="28">
+        <f t="shared" ref="C13:D15" si="1">5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D13" s="34">
-        <f>5/104.2</f>
+      <c r="D13" s="23">
+        <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="27">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G13" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="H13" s="32">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="I13" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="J13" s="48">
-        <f>3/112.2</f>
+      <c r="G13" s="20">
+        <f t="shared" ref="G13:J14" si="2">3/112.2</f>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="2"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="2"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
@@ -1871,36 +1884,36 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="39">
-        <f>5/104.2</f>
+      <c r="C14" s="28">
+        <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D14" s="34">
-        <f>5/104.2</f>
+      <c r="D14" s="23">
+        <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="27">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G14" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="H14" s="32">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="I14" s="31">
-        <f>3/112.2</f>
-        <v>2.6737967914438502E-2</v>
-      </c>
-      <c r="J14" s="32">
-        <f>3/112.2</f>
+      <c r="G14" s="20">
+        <f t="shared" si="2"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="2"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="2"/>
+        <v>2.6737967914438502E-2</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
@@ -1909,32 +1922,32 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="39">
-        <f>5/104.2</f>
+      <c r="C15" s="28">
+        <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D15" s="34">
-        <f>5/104.2</f>
+      <c r="D15" s="23">
+        <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="27">
         <f>7/111.2</f>
         <v>6.2949640287769781E-2</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1943,30 +1956,30 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="39">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34">
-        <v>0</v>
-      </c>
-      <c r="E16" s="41">
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
         <f>7/111.2</f>
         <v>6.2949640287769781E-2</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="31">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G16" s="31">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1974,31 +1987,31 @@
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="49">
-        <v>0</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0</v>
-      </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
+      <c r="C17" s="38">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
         <f>9/112.2</f>
         <v>8.0213903743315509E-2</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="21">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="20">
         <f>7/112.2</f>
         <v>6.2388591800356503E-2</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="21">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
@@ -2010,36 +2023,36 @@
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="28">
         <f>1/104.2</f>
         <v>9.5969289827255271E-3</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="23">
         <f>1/104.2</f>
         <v>9.5969289827255271E-3</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="29">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="25">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="G18" s="35">
-        <f>0.1/112.2</f>
+      <c r="G18" s="24">
+        <f t="shared" ref="G18:J19" si="3">0.1/112.2</f>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="H18" s="35">
-        <f>0.1/112.2</f>
+      <c r="H18" s="24">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="I18" s="35">
-        <f>0.1/112.2</f>
+      <c r="I18" s="24">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="J18" s="35">
-        <f>0.1/112.2</f>
+      <c r="J18" s="24">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
     </row>
@@ -2048,36 +2061,36 @@
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="28">
         <f>0.2/104.2</f>
         <v>1.9193857965451057E-3</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="23">
         <f>0.2/104.2</f>
         <v>1.9193857965451057E-3</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="27">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="21">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="G19" s="31">
-        <f>0.1/112.2</f>
+      <c r="G19" s="20">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="H19" s="31">
-        <f>0.1/112.2</f>
+      <c r="H19" s="20">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="I19" s="31">
-        <f>0.1/112.2</f>
+      <c r="I19" s="20">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="J19" s="31">
-        <f>0.1/112.2</f>
+      <c r="J19" s="20">
+        <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
     </row>
@@ -2091,10 +2104,10 @@
     </row>
     <row r="21" spans="1:10" ht="31">
       <c r="C21" s="7"/>
-      <c r="E21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="43"/>
+      <c r="I21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/figure/OperatorWeights.xlsx
+++ b/figure/OperatorWeights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanzhang/Documents/UOALearning/OperatorPaper/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60402D72-3B4F-3745-8307-9066AE7E8A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679C160-531F-814C-A91A-0282520867FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="1400" windowWidth="33180" windowHeight="17440" xr2:uid="{3FB4DF38-F6E0-1E40-BC74-3A8B570BED1B}"/>
+    <workbookView xWindow="35800" yWindow="1400" windowWidth="33180" windowHeight="17440" xr2:uid="{3FB4DF38-F6E0-1E40-BC74-3A8B570BED1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolute" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>rates&amp;times</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>simulated data</t>
+  </si>
+  <si>
+    <t>primates</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,38 +452,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A310927F-C9A1-4443-B16F-5623ACA02806}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -820,31 +829,35 @@
     <col min="17" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31">
+    <row r="1" spans="1:12" ht="31">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" ht="31">
+      <c r="J1" s="50"/>
+      <c r="K1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="31">
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
@@ -869,8 +882,14 @@
       <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="31">
+      <c r="K2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="J3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="35">
+      <c r="K3" s="39">
+        <v>11</v>
+      </c>
+      <c r="L3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="35">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -925,45 +950,57 @@
       <c r="H4" s="10">
         <v>30</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="42">
         <v>20</v>
       </c>
       <c r="J4" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="35">
+      <c r="K4" s="39">
+        <v>29</v>
+      </c>
+      <c r="L4" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="35">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="39">
-        <v>3</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="39">
-        <v>3</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43">
-        <v>3</v>
-      </c>
-      <c r="H5" s="44"/>
+      <c r="C5" s="44">
+        <v>3</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44">
+        <v>3</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="52">
+        <v>3</v>
+      </c>
+      <c r="H5" s="48"/>
       <c r="I5" s="8">
         <v>3</v>
       </c>
       <c r="J5" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="31">
+      <c r="K5" s="39">
+        <v>3</v>
+      </c>
+      <c r="L5" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39">
-        <v>0</v>
-      </c>
-      <c r="D6" s="47"/>
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45"/>
       <c r="E6" s="8">
         <v>4</v>
       </c>
@@ -976,19 +1013,25 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="39">
-        <v>0</v>
-      </c>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" ht="31">
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="39">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="47"/>
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45"/>
       <c r="E7" s="8">
         <v>5</v>
       </c>
@@ -1001,58 +1044,76 @@
       <c r="H7" s="10">
         <v>3</v>
       </c>
-      <c r="I7" s="39">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10" ht="31">
+      <c r="I7" s="44">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="39">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="39">
-        <v>3</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="39">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43">
-        <v>3</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="52">
+      <c r="C8" s="44">
+        <v>3</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="52">
+        <v>3</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="43">
         <v>5</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="41">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="31">
+      <c r="K8" s="39">
+        <v>5</v>
+      </c>
+      <c r="L8" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39">
-        <v>3</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="39">
-        <v>3</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43">
-        <v>3</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="39">
+      <c r="C9" s="44">
+        <v>3</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44">
+        <v>3</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="52">
+        <v>3</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="44">
         <v>5</v>
       </c>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" ht="31">
+      <c r="J9" s="50"/>
+      <c r="K9" s="39">
+        <v>5</v>
+      </c>
+      <c r="L9" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1081,8 +1142,14 @@
       <c r="J10" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="31">
+      <c r="K10" s="39">
+        <v>20</v>
+      </c>
+      <c r="L10" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1107,12 +1174,18 @@
       <c r="H11" s="14">
         <v>15</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="46">
         <v>15</v>
       </c>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10" ht="31">
+      <c r="J11" s="51"/>
+      <c r="K11" s="39">
+        <v>15</v>
+      </c>
+      <c r="L11" s="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -1135,56 +1208,74 @@
       <c r="H12" s="10">
         <v>15</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="44">
         <v>15</v>
       </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" ht="31">
+      <c r="J12" s="50"/>
+      <c r="K12" s="39">
+        <v>15</v>
+      </c>
+      <c r="L12" s="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="39">
-        <v>3</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="39">
-        <v>3</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="43">
-        <v>3</v>
-      </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="39">
+      <c r="C13" s="44">
+        <v>3</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44">
+        <v>3</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="52">
+        <v>3</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="44">
         <v>5</v>
       </c>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="31">
+      <c r="J13" s="50"/>
+      <c r="K13" s="39">
+        <v>10</v>
+      </c>
+      <c r="L13" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="39">
-        <v>3</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="39">
-        <v>3</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="43">
-        <v>3</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="39">
+      <c r="C14" s="44">
+        <v>3</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44">
+        <v>3</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="52">
+        <v>3</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="44">
         <v>5</v>
       </c>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" ht="31">
+      <c r="J14" s="50"/>
+      <c r="K14" s="39">
+        <v>10</v>
+      </c>
+      <c r="L14" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1195,20 +1286,26 @@
       <c r="D15" s="16">
         <v>3</v>
       </c>
-      <c r="E15" s="39">
-        <v>0</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="39">
+      <c r="E15" s="44">
+        <v>0</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="52">
+        <v>0</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="44">
         <v>5</v>
       </c>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="31">
+      <c r="J15" s="50"/>
+      <c r="K15" s="39">
+        <v>3</v>
+      </c>
+      <c r="L15" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -1219,27 +1316,33 @@
       <c r="D16" s="18">
         <v>3</v>
       </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43">
-        <v>0</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="39">
-        <v>0</v>
-      </c>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" ht="31">
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="52">
+        <v>0</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="44">
+        <v>0</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="39">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="39">
-        <v>0</v>
-      </c>
-      <c r="D17" s="47"/>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="45"/>
       <c r="E17" s="8">
         <v>9</v>
       </c>
@@ -1252,104 +1355,151 @@
       <c r="H17" s="10">
         <v>3</v>
       </c>
-      <c r="I17" s="39">
-        <v>0</v>
-      </c>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" ht="31">
+      <c r="I17" s="44">
+        <v>0</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="39">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="46">
         <v>0.1</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="41">
+      <c r="D18" s="47"/>
+      <c r="E18" s="46">
         <v>0.1</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45">
+      <c r="F18" s="49"/>
+      <c r="G18" s="53">
         <v>0.1</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="41">
+      <c r="H18" s="49"/>
+      <c r="I18" s="46">
         <v>1</v>
       </c>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" ht="31">
+      <c r="J18" s="51"/>
+      <c r="K18" s="39">
+        <v>2</v>
+      </c>
+      <c r="L18" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="31">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="44">
         <v>0.1</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="39">
+      <c r="D19" s="45"/>
+      <c r="E19" s="44">
         <v>0.1</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43">
+      <c r="F19" s="48"/>
+      <c r="G19" s="52">
         <v>0.1</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="39">
+      <c r="H19" s="48"/>
+      <c r="I19" s="44">
         <v>0.2</v>
       </c>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="1:10" ht="31">
+      <c r="J19" s="50"/>
+      <c r="K19" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="31">
+    <row r="21" spans="1:12" ht="31">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="31">
+    <row r="22" spans="1:12" ht="31">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="31">
+    <row r="23" spans="1:12" ht="31">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="31">
+    <row r="24" spans="1:12" ht="31">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="31">
+    <row r="25" spans="1:12" ht="31">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="31">
+    <row r="26" spans="1:12" ht="31">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="31">
+    <row r="27" spans="1:12" ht="31">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="31">
+    <row r="28" spans="1:12" ht="31">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -1366,34 +1516,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1428,22 +1550,22 @@
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="47"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="31">
       <c r="C2" s="8" t="s">

--- a/figure/OperatorWeights.xlsx
+++ b/figure/OperatorWeights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanzhang/Documents/UOALearning/OperatorPaper/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679C160-531F-814C-A91A-0282520867FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251C4320-C877-D24E-A149-481FDAB904E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35800" yWindow="1400" windowWidth="33180" windowHeight="17440" xr2:uid="{3FB4DF38-F6E0-1E40-BC74-3A8B570BED1B}"/>
+    <workbookView xWindow="34240" yWindow="1640" windowWidth="33180" windowHeight="17440" xr2:uid="{3FB4DF38-F6E0-1E40-BC74-3A8B570BED1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolute" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -224,46 +224,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC00000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC00000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -356,16 +316,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,40 +336,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -426,26 +370,26 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,34 +404,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A310927F-C9A1-4443-B16F-5623ACA02806}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -833,59 +790,60 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="31">
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -893,259 +851,287 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38">
         <v>25</v>
       </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>25</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44">
         <v>25</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="42">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <v>20</v>
       </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39">
-        <v>11</v>
-      </c>
-      <c r="L3" s="40">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>20</v>
+      </c>
+      <c r="L3" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="38">
         <v>15</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="39">
         <v>30</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>15</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="38">
         <v>30</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="44">
         <v>15</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="42">
         <v>30</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="36">
         <v>20</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>30</v>
       </c>
-      <c r="K4" s="39">
-        <v>29</v>
-      </c>
-      <c r="L4" s="40">
+      <c r="K4" s="33">
+        <v>20</v>
+      </c>
+      <c r="L4" s="34">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="35">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="44">
-        <v>3</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44">
-        <v>3</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="52">
-        <v>3</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="8">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="39">
-        <v>3</v>
-      </c>
-      <c r="L5" s="40">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="33">
+        <v>3</v>
+      </c>
+      <c r="L5" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="44">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="8">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="38">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="44">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="42">
         <v>1</v>
       </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="39">
-        <v>0</v>
-      </c>
-      <c r="L6" s="40">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44">
-        <v>0</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="8">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="10">
-        <v>3</v>
-      </c>
-      <c r="G7" s="12">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10">
-        <v>3</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="39">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
+      <c r="F7" s="38">
+        <v>3</v>
+      </c>
+      <c r="G7" s="44">
+        <v>3</v>
+      </c>
+      <c r="H7" s="42">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35">
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="L7" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="44">
-        <v>3</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44">
-        <v>3</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="52">
-        <v>3</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="43">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="50">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3</v>
+      </c>
+      <c r="I8" s="37">
         <v>5</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="35">
         <v>10</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="33">
         <v>5</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="44">
-        <v>3</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="44">
-        <v>3</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="52">
-        <v>3</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="44">
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="50">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6">
         <v>5</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="39">
+      <c r="J9" s="35">
         <v>5</v>
       </c>
-      <c r="L9" s="40">
+      <c r="K9" s="33">
+        <v>5</v>
+      </c>
+      <c r="L9" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>20</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="35">
         <v>30</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>15</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="38">
         <v>30</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="44">
         <v>20</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="42">
         <v>30</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>5</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>10</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="33">
         <v>20</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="34">
         <v>30</v>
       </c>
     </row>
@@ -1153,369 +1139,1153 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>11</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="45">
         <v>15</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>12</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="40">
         <v>15</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="51">
         <v>13</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="43">
         <v>15</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="3">
         <v>15</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="39">
+      <c r="J11" s="45">
         <v>15</v>
       </c>
-      <c r="L11" s="40">
+      <c r="K11" s="33">
+        <v>15</v>
+      </c>
+      <c r="L11" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="31">
       <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>11</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="35">
         <v>15</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>12</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="38">
         <v>15</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="44">
         <v>13</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="42">
         <v>15</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="6">
         <v>15</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="39">
+      <c r="J12" s="35">
         <v>15</v>
       </c>
-      <c r="L12" s="40">
-        <v>15</v>
+      <c r="K12" s="33">
+        <v>5</v>
+      </c>
+      <c r="L12" s="34">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31">
       <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="44">
-        <v>3</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44">
-        <v>3</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="52">
-        <v>3</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="44">
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="50">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
         <v>5</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="39">
-        <v>10</v>
-      </c>
-      <c r="L13" s="40">
-        <v>10</v>
+      <c r="J13" s="35">
+        <v>5</v>
+      </c>
+      <c r="K13" s="33">
+        <v>5</v>
+      </c>
+      <c r="L13" s="34">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31">
       <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="44">
-        <v>3</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="44">
-        <v>3</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="52">
-        <v>3</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="44">
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="50">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
         <v>5</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="39">
-        <v>10</v>
-      </c>
-      <c r="L14" s="40">
-        <v>10</v>
+      <c r="J14" s="35">
+        <v>5</v>
+      </c>
+      <c r="K14" s="33">
+        <v>5</v>
+      </c>
+      <c r="L14" s="34">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="31">
       <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>7</v>
       </c>
-      <c r="D15" s="16">
-        <v>3</v>
-      </c>
-      <c r="E15" s="44">
-        <v>0</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="52">
-        <v>0</v>
-      </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="44">
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="50">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
         <v>5</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="39">
-        <v>3</v>
-      </c>
-      <c r="L15" s="40">
+      <c r="J15" s="35">
+        <v>5</v>
+      </c>
+      <c r="K15" s="33">
+        <v>3</v>
+      </c>
+      <c r="L15" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="31">
       <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="18">
-        <v>3</v>
-      </c>
-      <c r="E16" s="44">
-        <v>0</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="52">
-        <v>0</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="39">
-        <v>0</v>
-      </c>
-      <c r="L16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="31">
-      <c r="B17" s="1" t="s">
+      <c r="D16" s="49">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <v>0</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="31">
+      <c r="B17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="44">
-        <v>0</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="8">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
         <v>9</v>
       </c>
-      <c r="F17" s="10">
-        <v>3</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="F17" s="38">
+        <v>3</v>
+      </c>
+      <c r="G17" s="44">
         <v>7</v>
       </c>
-      <c r="H17" s="10">
-        <v>3</v>
-      </c>
-      <c r="I17" s="44">
-        <v>0</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="39">
-        <v>0</v>
-      </c>
-      <c r="L17" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="31">
+      <c r="H17" s="42">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="31">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="3">
         <v>0.1</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="46">
+      <c r="D18" s="45">
         <v>0.1</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="53">
+      <c r="E18" s="3">
         <v>0.1</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="46">
+      <c r="F18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="39">
+      <c r="J18" s="45">
+        <v>1</v>
+      </c>
+      <c r="K18" s="33">
         <v>2</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="31">
+    <row r="19" spans="1:14" ht="31">
       <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="6">
         <v>0.1</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="44">
+      <c r="D19" s="35">
         <v>0.1</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="52">
+      <c r="E19" s="6">
         <v>0.1</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="44">
+      <c r="F19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="6">
         <v>0.2</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="39">
+      <c r="J19" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="33">
         <v>0.1</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31">
+    <row r="20" spans="1:14" ht="31">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="31">
+      <c r="C20" s="46">
+        <f t="shared" ref="C20:H20" si="0">SUM(C3:C19)</f>
+        <v>111.19999999999999</v>
+      </c>
+      <c r="D20" s="46">
+        <f t="shared" si="0"/>
+        <v>111.19999999999999</v>
+      </c>
+      <c r="E20" s="46">
+        <f t="shared" si="0"/>
+        <v>112.19999999999999</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" si="0"/>
+        <v>112.19999999999999</v>
+      </c>
+      <c r="G20" s="46">
+        <f t="shared" si="0"/>
+        <v>112.19999999999999</v>
+      </c>
+      <c r="H20" s="46">
+        <f t="shared" si="0"/>
+        <v>112.19999999999999</v>
+      </c>
+      <c r="I20" s="46">
+        <f>SUM(I3:I19)</f>
+        <v>104.2</v>
+      </c>
+      <c r="J20" s="46">
+        <f>SUM(J3:J19)</f>
+        <v>104.2</v>
+      </c>
+      <c r="K20" s="46">
+        <f>SUM(K3:K19)</f>
+        <v>108.1</v>
+      </c>
+      <c r="L20" s="46">
+        <f>SUM(L3:L19)</f>
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="31">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="31">
+      <c r="C21" s="4"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:14" ht="31">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="31">
+      <c r="C22" s="53">
+        <f>C3/$C$20</f>
+        <v>0.2248201438848921</v>
+      </c>
+      <c r="D22" s="47">
+        <f>D3/$D$20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="47">
+        <f>E3/$E$20</f>
+        <v>0.22281639928698754</v>
+      </c>
+      <c r="F22" s="47">
+        <f>F3/$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="47">
+        <f>G3/$G$20</f>
+        <v>0.22281639928698754</v>
+      </c>
+      <c r="H22" s="47">
+        <f>H3/$H$20</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="47">
+        <f>I3/$I$20</f>
+        <v>0.19193857965451055</v>
+      </c>
+      <c r="J22" s="47">
+        <f>J3/$J$20</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="47">
+        <f>K3/$K$20</f>
+        <v>0.18501387604070307</v>
+      </c>
+      <c r="L22" s="47">
+        <f>L3/$L$20</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="1:14" ht="31">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="31">
+      <c r="C23" s="53">
+        <f t="shared" ref="C23:C38" si="1">C4/$C$20</f>
+        <v>0.13489208633093527</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" ref="D23:D38" si="2">D4/$D$20</f>
+        <v>0.26978417266187055</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" ref="E23:E38" si="3">E4/$E$20</f>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="F23" s="47">
+        <f t="shared" ref="F23:F38" si="4">F4/$F$20</f>
+        <v>0.26737967914438504</v>
+      </c>
+      <c r="G23" s="47">
+        <f t="shared" ref="G23:G38" si="5">G4/$G$20</f>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="H23" s="47">
+        <f t="shared" ref="H23:H38" si="6">H4/$H$20</f>
+        <v>0.26737967914438504</v>
+      </c>
+      <c r="I23" s="47">
+        <f t="shared" ref="I23:I31" si="7">I4/$I$20</f>
+        <v>0.19193857965451055</v>
+      </c>
+      <c r="J23" s="47">
+        <f t="shared" ref="J23:J38" si="8">J4/$J$20</f>
+        <v>0.28790786948176583</v>
+      </c>
+      <c r="K23" s="47">
+        <f t="shared" ref="K23:K38" si="9">K4/$K$20</f>
+        <v>0.18501387604070307</v>
+      </c>
+      <c r="L23" s="47">
+        <f t="shared" ref="L23:L38" si="10">L4/$L$20</f>
+        <v>0.27752081406105461</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+    </row>
+    <row r="24" spans="1:14" ht="31">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="31">
+      <c r="C24" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="3"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G24" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="7"/>
+        <v>2.8790786948176581E-2</v>
+      </c>
+      <c r="J24" s="47">
+        <f t="shared" si="8"/>
+        <v>2.8790786948176581E-2</v>
+      </c>
+      <c r="K24" s="47">
+        <f t="shared" si="9"/>
+        <v>2.775208140610546E-2</v>
+      </c>
+      <c r="L24" s="47">
+        <f t="shared" si="10"/>
+        <v>2.775208140610546E-2</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" ht="31">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="31">
+      <c r="C25" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="3"/>
+        <v>3.5650623885918005E-2</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" si="4"/>
+        <v>8.9126559714795012E-3</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" si="5"/>
+        <v>8.9126559714795012E-3</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" si="6"/>
+        <v>8.9126559714795012E-3</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" ht="31">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="31">
+      <c r="C26" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="3"/>
+        <v>4.4563279857397511E-2</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="31">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="31">
+      <c r="C27" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="D27" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="3"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G27" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="H27" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I27" s="47">
+        <f t="shared" si="7"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="J27" s="47">
+        <f t="shared" si="8"/>
+        <v>9.5969289827255277E-2</v>
+      </c>
+      <c r="K27" s="47">
+        <f t="shared" si="9"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="L27" s="47">
+        <f t="shared" si="10"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+    </row>
+    <row r="28" spans="1:14" ht="31">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="D28" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E28" s="47">
+        <f t="shared" si="3"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="F28" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G28" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="H28" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I28" s="47">
+        <f t="shared" si="7"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="J28" s="47">
+        <f t="shared" si="8"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="K28" s="47">
+        <f t="shared" si="9"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="L28" s="47">
+        <f t="shared" si="10"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+    </row>
+    <row r="29" spans="1:14" ht="31">
+      <c r="C29" s="53">
+        <f t="shared" si="1"/>
+        <v>0.17985611510791369</v>
+      </c>
+      <c r="D29" s="47">
+        <f t="shared" si="2"/>
+        <v>0.26978417266187055</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" si="3"/>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" si="4"/>
+        <v>0.26737967914438504</v>
+      </c>
+      <c r="G29" s="47">
+        <f t="shared" si="5"/>
+        <v>0.17825311942959005</v>
+      </c>
+      <c r="H29" s="47">
+        <f t="shared" si="6"/>
+        <v>0.26737967914438504</v>
+      </c>
+      <c r="I29" s="47">
+        <f t="shared" si="7"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="J29" s="47">
+        <f t="shared" si="8"/>
+        <v>9.5969289827255277E-2</v>
+      </c>
+      <c r="K29" s="47">
+        <f t="shared" si="9"/>
+        <v>0.18501387604070307</v>
+      </c>
+      <c r="L29" s="47">
+        <f t="shared" si="10"/>
+        <v>0.27752081406105461</v>
+      </c>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+    </row>
+    <row r="30" spans="1:14" ht="31">
+      <c r="C30" s="53">
+        <f t="shared" si="1"/>
+        <v>9.8920863309352527E-2</v>
+      </c>
+      <c r="D30" s="47">
+        <f t="shared" si="2"/>
+        <v>0.13489208633093527</v>
+      </c>
+      <c r="E30" s="47">
+        <f t="shared" si="3"/>
+        <v>0.10695187165775402</v>
+      </c>
+      <c r="F30" s="47">
+        <f t="shared" si="4"/>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="G30" s="47">
+        <f t="shared" si="5"/>
+        <v>0.11586452762923352</v>
+      </c>
+      <c r="H30" s="47">
+        <f t="shared" si="6"/>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="I30" s="47">
+        <f t="shared" si="7"/>
+        <v>0.14395393474088292</v>
+      </c>
+      <c r="J30" s="47">
+        <f t="shared" si="8"/>
+        <v>0.14395393474088292</v>
+      </c>
+      <c r="K30" s="47">
+        <f t="shared" si="9"/>
+        <v>0.13876040703052731</v>
+      </c>
+      <c r="L30" s="47">
+        <f t="shared" si="10"/>
+        <v>0.13876040703052731</v>
+      </c>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+    </row>
+    <row r="31" spans="1:14" ht="31">
+      <c r="C31" s="53">
+        <f t="shared" si="1"/>
+        <v>9.8920863309352527E-2</v>
+      </c>
+      <c r="D31" s="47">
+        <f t="shared" si="2"/>
+        <v>0.13489208633093527</v>
+      </c>
+      <c r="E31" s="47">
+        <f t="shared" si="3"/>
+        <v>0.10695187165775402</v>
+      </c>
+      <c r="F31" s="47">
+        <f t="shared" si="4"/>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="G31" s="47">
+        <f t="shared" si="5"/>
+        <v>0.11586452762923352</v>
+      </c>
+      <c r="H31" s="47">
+        <f t="shared" si="6"/>
+        <v>0.13368983957219252</v>
+      </c>
+      <c r="I31" s="47">
+        <f t="shared" si="7"/>
+        <v>0.14395393474088292</v>
+      </c>
+      <c r="J31" s="47">
+        <f t="shared" si="8"/>
+        <v>0.14395393474088292</v>
+      </c>
+      <c r="K31" s="47">
+        <f t="shared" si="9"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="L31" s="47">
+        <f t="shared" si="10"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+    </row>
+    <row r="32" spans="1:14" ht="31">
+      <c r="C32" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="D32" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E32" s="47">
+        <f t="shared" si="3"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="F32" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G32" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="H32" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I32" s="47">
+        <f>I13/$I$20</f>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="J32" s="47">
+        <f t="shared" si="8"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="K32" s="47">
+        <f t="shared" si="9"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="L32" s="47">
+        <f t="shared" si="10"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+    </row>
+    <row r="33" spans="3:14" ht="31">
+      <c r="C33" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="D33" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E33" s="47">
+        <f t="shared" si="3"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="F33" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G33" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="H33" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I33" s="47">
+        <f t="shared" ref="I33:I38" si="11">I14/$I$20</f>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="J33" s="47">
+        <f t="shared" si="8"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="K33" s="47">
+        <f t="shared" si="9"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="L33" s="47">
+        <f t="shared" si="10"/>
+        <v>4.6253469010175768E-2</v>
+      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+    </row>
+    <row r="34" spans="3:14" ht="31">
+      <c r="C34" s="53">
+        <f t="shared" si="1"/>
+        <v>6.2949640287769795E-2</v>
+      </c>
+      <c r="D34" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="47">
+        <f t="shared" si="11"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="J34" s="47">
+        <f t="shared" si="8"/>
+        <v>4.7984644913627639E-2</v>
+      </c>
+      <c r="K34" s="47">
+        <f t="shared" si="9"/>
+        <v>2.775208140610546E-2</v>
+      </c>
+      <c r="L34" s="47">
+        <f t="shared" si="10"/>
+        <v>2.775208140610546E-2</v>
+      </c>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+    </row>
+    <row r="35" spans="3:14" ht="31">
+      <c r="C35" s="53">
+        <f t="shared" si="1"/>
+        <v>6.2949640287769795E-2</v>
+      </c>
+      <c r="D35" s="47">
+        <f t="shared" si="2"/>
+        <v>2.6978417266187053E-2</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+    </row>
+    <row r="36" spans="3:14" ht="31">
+      <c r="C36" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" si="3"/>
+        <v>8.0213903743315509E-2</v>
+      </c>
+      <c r="F36" s="47">
+        <f t="shared" si="4"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="G36" s="47">
+        <f t="shared" si="5"/>
+        <v>6.238859180035651E-2</v>
+      </c>
+      <c r="H36" s="47">
+        <f t="shared" si="6"/>
+        <v>2.6737967914438505E-2</v>
+      </c>
+      <c r="I36" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" spans="3:14" ht="31">
+      <c r="C37" s="53">
+        <f t="shared" si="1"/>
+        <v>8.992805755395685E-4</v>
+      </c>
+      <c r="D37" s="47">
+        <f t="shared" si="2"/>
+        <v>8.992805755395685E-4</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="3"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="4"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="G37" s="47">
+        <f t="shared" si="5"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="6"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="I37" s="47">
+        <f t="shared" si="11"/>
+        <v>9.5969289827255271E-3</v>
+      </c>
+      <c r="J37" s="47">
+        <f t="shared" si="8"/>
+        <v>9.5969289827255271E-3</v>
+      </c>
+      <c r="K37" s="47">
+        <f t="shared" si="9"/>
+        <v>1.8501387604070305E-2</v>
+      </c>
+      <c r="L37" s="47">
+        <f t="shared" si="10"/>
+        <v>1.8501387604070305E-2</v>
+      </c>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+    </row>
+    <row r="38" spans="3:14" ht="31">
+      <c r="C38" s="53">
+        <f t="shared" si="1"/>
+        <v>8.992805755395685E-4</v>
+      </c>
+      <c r="D38" s="47">
+        <f t="shared" si="2"/>
+        <v>8.992805755395685E-4</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="3"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" si="4"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" si="5"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="6"/>
+        <v>8.9126559714795025E-4</v>
+      </c>
+      <c r="I38" s="47">
+        <f t="shared" si="11"/>
+        <v>1.9193857965451057E-3</v>
+      </c>
+      <c r="J38" s="47">
+        <f t="shared" si="8"/>
+        <v>1.9193857965451057E-3</v>
+      </c>
+      <c r="K38" s="47">
+        <f t="shared" si="9"/>
+        <v>9.2506938020351542E-4</v>
+      </c>
+      <c r="L38" s="47">
+        <f t="shared" si="10"/>
+        <v>9.2506938020351542E-4</v>
+      </c>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="5">
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1544,52 +2314,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="31">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1597,290 +2367,290 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21">
         <f>25/104.2</f>
         <v>0.23992322456813819</v>
       </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
         <f>25/111.2</f>
         <v>0.22482014388489208</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
         <f>25/112.2</f>
         <v>0.22281639928698752</v>
       </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
         <f>25/112.2</f>
         <v>0.22281639928698752</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="35">
       <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <f>30/104.2</f>
         <v>0.28790786948176583</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>15/111.2</f>
         <v>0.13489208633093525</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <f>30/111.2</f>
         <v>0.26978417266187049</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="14">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="15">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="14">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <f>3/104.2</f>
         <v>2.8790786948176581E-2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <f>3/104.2</f>
         <v>2.8790786948176581E-2</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="14">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="15">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="14">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <f>4/112.2</f>
         <v>3.5650623885918005E-2</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="15">
         <f>1/112.2</f>
         <v>8.9126559714795012E-3</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="14">
         <f>1/112.2</f>
         <v>8.9126559714795012E-3</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="15">
         <f>1/112.2</f>
         <v>8.9126559714795012E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="31">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <f>5/112.2</f>
         <v>4.4563279857397504E-2</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="15">
         <f t="shared" ref="H7:J9" si="0">3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="22">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="14">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="31">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <f>5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <f>5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="14">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <f>5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="28">
         <f>10/104.2</f>
         <v>9.5969289827255277E-2</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <f>20/111.2</f>
         <v>0.17985611510791366</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <f>30/111.2</f>
         <v>0.26978417266187049</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="29">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="28">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="14">
         <f>20/112.2</f>
         <v>0.17825311942959002</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="15">
         <f>30/112.2</f>
         <v>0.26737967914438504</v>
       </c>
@@ -1889,251 +2659,251 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="22">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="30">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="23">
         <f>11/111.2</f>
         <v>9.8920863309352514E-2</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="19">
         <f>15/111.2</f>
         <v>0.13489208633093525</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="14">
         <f>12/112.2</f>
         <v>0.10695187165775401</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="15">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
         <f>13/112.2</f>
         <v>0.11586452762923351</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="19">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="31">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="22">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <f>15/104.2</f>
         <v>0.14395393474088292</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <f>11/111.2</f>
         <v>9.8920863309352514E-2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <f>15/111.2</f>
         <v>0.13489208633093525</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="14">
         <f>12/112.2</f>
         <v>0.10695187165775401</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="15">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="14">
         <f>13/112.2</f>
         <v>0.11586452762923351</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="15">
         <f>15/112.2</f>
         <v>0.13368983957219252</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="31">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="22">
         <f t="shared" ref="C13:D15" si="1">5/104.2</f>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="14">
         <f t="shared" ref="G13:J14" si="2">3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="15">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="14">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="31">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="15">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="14">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="15">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="14">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="15">
         <f t="shared" si="2"/>
         <v>2.6737967914438502E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="22">
         <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <f t="shared" si="1"/>
         <v>4.7984644913627639E-2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="21">
         <f>7/111.2</f>
         <v>6.2949640287769781E-2</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="15">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
         <f>7/111.2</f>
         <v>6.2949640287769781E-2</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="25">
         <f>3/111.2</f>
         <v>2.6978417266187049E-2</v>
       </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20">
-        <v>0</v>
-      </c>
-      <c r="J16" s="21">
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="31">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="38">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
         <f>9/112.2</f>
         <v>8.0213903743315509E-2</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="15">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="14">
         <f>7/112.2</f>
         <v>6.2388591800356503E-2</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="15">
         <f>3/112.2</f>
         <v>2.6737967914438502E-2</v>
       </c>
@@ -2142,94 +2912,94 @@
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="22">
         <f>1/104.2</f>
         <v>9.5969289827255271E-3</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <f>1/104.2</f>
         <v>9.5969289827255271E-3</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="23">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="19">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
         <f t="shared" ref="G18:J19" si="3">0.1/112.2</f>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="18">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="18">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="31">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <f>0.2/104.2</f>
         <v>1.9193857965451057E-3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <f>0.2/104.2</f>
         <v>1.9193857965451057E-3</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="15">
         <f>0.1/111.2</f>
         <v>8.9928057553956839E-4</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="14">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="14">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="14">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="14">
         <f t="shared" si="3"/>
         <v>8.9126559714795015E-4</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="31">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="31">
-      <c r="C21" s="7"/>
-      <c r="E21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="32"/>
+      <c r="C21" s="6"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
